--- a/public/answer2024_1~3.xlsx
+++ b/public/answer2024_1~3.xlsx
@@ -746,14 +746,6 @@
     <t>信明眼科診所</t>
   </si>
   <si>
-    <t>第1題</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第2題</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>第3題</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -889,10 +881,6 @@
   </si>
   <si>
     <t>線別</t>
-  </si>
-  <si>
-    <t>A00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>產品價格的穩定度
@@ -1145,6 +1133,18 @@
   </si>
   <si>
     <t>拒絕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2題</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1題</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客訴</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1608,8 +1608,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:R243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1624,58 +1624,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="R1" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1697,7 +1697,7 @@
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1738,7 +1738,7 @@
         <v>10</v>
       </c>
       <c r="R4" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1779,7 +1779,7 @@
         <v>10</v>
       </c>
       <c r="R5" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1790,7 +1790,7 @@
         <v>5</v>
       </c>
       <c r="R6" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1831,10 +1831,10 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="R7" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1845,7 +1845,7 @@
         <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1856,7 +1856,7 @@
         <v>8</v>
       </c>
       <c r="R9" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1867,7 +1867,7 @@
         <v>9</v>
       </c>
       <c r="R10" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1878,7 +1878,7 @@
         <v>10</v>
       </c>
       <c r="R11" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1889,7 +1889,7 @@
         <v>21</v>
       </c>
       <c r="R12" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1900,7 +1900,7 @@
         <v>11</v>
       </c>
       <c r="R13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1941,7 +1941,7 @@
         <v>8</v>
       </c>
       <c r="R14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1952,7 +1952,7 @@
         <v>13</v>
       </c>
       <c r="R15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1960,7 +1960,7 @@
         <v>510003</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -1993,7 +1993,7 @@
         <v>10</v>
       </c>
       <c r="R16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2034,7 +2034,7 @@
         <v>10</v>
       </c>
       <c r="R17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2045,7 +2045,7 @@
         <v>15</v>
       </c>
       <c r="R18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2056,7 +2056,7 @@
         <v>16</v>
       </c>
       <c r="R19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2097,7 +2097,7 @@
         <v>10</v>
       </c>
       <c r="R20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2108,7 +2108,7 @@
         <v>18</v>
       </c>
       <c r="R21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2149,10 +2149,10 @@
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2193,7 +2193,7 @@
         <v>10</v>
       </c>
       <c r="R23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2234,10 +2234,10 @@
         <v>6</v>
       </c>
       <c r="O24" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="R24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2278,7 +2278,7 @@
         <v>8</v>
       </c>
       <c r="R25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2289,7 +2289,7 @@
         <v>24</v>
       </c>
       <c r="R26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2330,7 +2330,7 @@
         <v>8</v>
       </c>
       <c r="R27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2371,7 +2371,7 @@
         <v>10</v>
       </c>
       <c r="R28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2412,10 +2412,10 @@
         <v>10</v>
       </c>
       <c r="O29" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="R29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2456,10 +2456,10 @@
         <v>8</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="R30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2470,7 +2470,7 @@
         <v>29</v>
       </c>
       <c r="R31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2511,10 +2511,10 @@
         <v>6</v>
       </c>
       <c r="M32" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="R32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2555,7 +2555,7 @@
         <v>8</v>
       </c>
       <c r="R33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2596,10 +2596,10 @@
         <v>8</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="R34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2640,7 +2640,7 @@
         <v>8</v>
       </c>
       <c r="R35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2651,7 +2651,7 @@
         <v>34</v>
       </c>
       <c r="R36" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2692,7 +2692,7 @@
         <v>8</v>
       </c>
       <c r="R37" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2733,10 +2733,10 @@
         <v>8</v>
       </c>
       <c r="O38" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="R38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2747,7 +2747,7 @@
         <v>37</v>
       </c>
       <c r="R39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2758,7 +2758,7 @@
         <v>38</v>
       </c>
       <c r="R40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2799,7 +2799,7 @@
         <v>8</v>
       </c>
       <c r="R41" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -2840,10 +2840,10 @@
         <v>4</v>
       </c>
       <c r="O42" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="R42" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -2854,7 +2854,7 @@
         <v>41</v>
       </c>
       <c r="R43" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -2895,10 +2895,10 @@
         <v>10</v>
       </c>
       <c r="O44" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="R44" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -2908,6 +2908,15 @@
       <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
       <c r="F45">
         <v>10</v>
       </c>
@@ -2930,10 +2939,10 @@
         <v>10</v>
       </c>
       <c r="M45" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="R45" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -2944,7 +2953,7 @@
         <v>44</v>
       </c>
       <c r="R46" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -2955,7 +2964,7 @@
         <v>45</v>
       </c>
       <c r="R47" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -2966,10 +2975,10 @@
         <v>46</v>
       </c>
       <c r="M48" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="R48" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -2980,7 +2989,7 @@
         <v>47</v>
       </c>
       <c r="R49" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3021,7 +3030,7 @@
         <v>4</v>
       </c>
       <c r="R50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3032,7 +3041,7 @@
         <v>49</v>
       </c>
       <c r="R51" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3073,7 +3082,7 @@
         <v>10</v>
       </c>
       <c r="R52" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3114,10 +3123,10 @@
         <v>6</v>
       </c>
       <c r="M53" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="R53" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3128,10 +3137,10 @@
         <v>52</v>
       </c>
       <c r="M54" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="R54" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3172,10 +3181,10 @@
         <v>10</v>
       </c>
       <c r="M55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R55" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -3186,7 +3195,7 @@
         <v>54</v>
       </c>
       <c r="R56" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -3197,7 +3206,7 @@
         <v>55</v>
       </c>
       <c r="R57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3208,10 +3217,10 @@
         <v>56</v>
       </c>
       <c r="M58" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="R58" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -3222,10 +3231,10 @@
         <v>57</v>
       </c>
       <c r="M59" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R59" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -3266,10 +3275,10 @@
         <v>8</v>
       </c>
       <c r="M60" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="R60" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -3310,7 +3319,7 @@
         <v>10</v>
       </c>
       <c r="R61" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -3351,7 +3360,7 @@
         <v>10</v>
       </c>
       <c r="R62" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -3392,7 +3401,7 @@
         <v>6</v>
       </c>
       <c r="R63" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -3433,7 +3442,7 @@
         <v>8</v>
       </c>
       <c r="R64" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -3474,10 +3483,10 @@
         <v>10</v>
       </c>
       <c r="M65" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="R65" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -3488,10 +3497,10 @@
         <v>64</v>
       </c>
       <c r="M66" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="R66" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -3502,10 +3511,10 @@
         <v>65</v>
       </c>
       <c r="M67" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="R67" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -3516,10 +3525,10 @@
         <v>66</v>
       </c>
       <c r="M68" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="R68" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -3560,7 +3569,7 @@
         <v>10</v>
       </c>
       <c r="R69" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -3601,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="R70" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -3612,7 +3621,7 @@
         <v>69</v>
       </c>
       <c r="R71" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -3623,10 +3632,10 @@
         <v>70</v>
       </c>
       <c r="M72" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="R72" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -3637,10 +3646,10 @@
         <v>71</v>
       </c>
       <c r="M73" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="R73" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -3651,7 +3660,7 @@
         <v>72</v>
       </c>
       <c r="R74" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -3662,10 +3671,10 @@
         <v>73</v>
       </c>
       <c r="M75" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="R75" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -3706,7 +3715,7 @@
         <v>10</v>
       </c>
       <c r="R76" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -3717,10 +3726,10 @@
         <v>75</v>
       </c>
       <c r="M77" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="R77" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -3731,10 +3740,10 @@
         <v>76</v>
       </c>
       <c r="M78" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="R78" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -3745,10 +3754,10 @@
         <v>77</v>
       </c>
       <c r="M79" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="R79" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -3789,7 +3798,7 @@
         <v>10</v>
       </c>
       <c r="R80" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -3830,7 +3839,7 @@
         <v>10</v>
       </c>
       <c r="R81" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -3841,10 +3850,10 @@
         <v>80</v>
       </c>
       <c r="M82" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="R82" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -3885,7 +3894,7 @@
         <v>8</v>
       </c>
       <c r="R83" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -3926,10 +3935,10 @@
         <v>8</v>
       </c>
       <c r="M84" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="R84" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -3970,7 +3979,7 @@
         <v>10</v>
       </c>
       <c r="R85" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -3981,7 +3990,7 @@
         <v>84</v>
       </c>
       <c r="R86" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -4022,7 +4031,7 @@
         <v>10</v>
       </c>
       <c r="R87" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -4063,10 +4072,10 @@
         <v>10</v>
       </c>
       <c r="M88" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="R88" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -4107,7 +4116,7 @@
         <v>10</v>
       </c>
       <c r="R89" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -4118,10 +4127,10 @@
         <v>88</v>
       </c>
       <c r="M90" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="R90" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -4132,7 +4141,7 @@
         <v>89</v>
       </c>
       <c r="R91" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -4143,10 +4152,10 @@
         <v>90</v>
       </c>
       <c r="M92" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="R92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -4157,7 +4166,7 @@
         <v>91</v>
       </c>
       <c r="R93" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -4168,7 +4177,7 @@
         <v>92</v>
       </c>
       <c r="R94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -4179,10 +4188,10 @@
         <v>93</v>
       </c>
       <c r="M95" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="R95" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -4223,10 +4232,10 @@
         <v>8</v>
       </c>
       <c r="M96" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="R96" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -4267,10 +4276,10 @@
         <v>8</v>
       </c>
       <c r="M97" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R97" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -4281,10 +4290,10 @@
         <v>96</v>
       </c>
       <c r="M98" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="R98" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -4325,10 +4334,10 @@
         <v>10</v>
       </c>
       <c r="M99" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="R99" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -4369,7 +4378,7 @@
         <v>10</v>
       </c>
       <c r="R100" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -4410,7 +4419,7 @@
         <v>10</v>
       </c>
       <c r="R101" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="78.75">
@@ -4451,10 +4460,10 @@
         <v>6</v>
       </c>
       <c r="O102" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="R102" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -4465,7 +4474,7 @@
         <v>101</v>
       </c>
       <c r="R103" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -4476,7 +4485,7 @@
         <v>102</v>
       </c>
       <c r="R104" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -4487,7 +4496,7 @@
         <v>103</v>
       </c>
       <c r="R105" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -4528,7 +4537,7 @@
         <v>10</v>
       </c>
       <c r="R106" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -4569,7 +4578,7 @@
         <v>8</v>
       </c>
       <c r="R107" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -4580,7 +4589,7 @@
         <v>106</v>
       </c>
       <c r="R108" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -4591,7 +4600,7 @@
         <v>107</v>
       </c>
       <c r="R109" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -4602,7 +4611,7 @@
         <v>108</v>
       </c>
       <c r="R110" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -4643,10 +4652,10 @@
         <v>10</v>
       </c>
       <c r="O111" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="R111" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -4657,7 +4666,7 @@
         <v>110</v>
       </c>
       <c r="R112" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -4698,7 +4707,7 @@
         <v>10</v>
       </c>
       <c r="R113" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -4709,7 +4718,7 @@
         <v>112</v>
       </c>
       <c r="R114" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -4750,7 +4759,7 @@
         <v>8</v>
       </c>
       <c r="R115" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -4791,7 +4800,7 @@
         <v>10</v>
       </c>
       <c r="R116" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -4832,7 +4841,7 @@
         <v>10</v>
       </c>
       <c r="R117" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -4843,7 +4852,7 @@
         <v>116</v>
       </c>
       <c r="R118" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -4884,7 +4893,7 @@
         <v>10</v>
       </c>
       <c r="R119" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -4895,7 +4904,7 @@
         <v>118</v>
       </c>
       <c r="R120" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -4906,7 +4915,7 @@
         <v>119</v>
       </c>
       <c r="R121" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -4947,10 +4956,10 @@
         <v>8</v>
       </c>
       <c r="O122" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="R122" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -4991,7 +5000,7 @@
         <v>8</v>
       </c>
       <c r="R123" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -5032,10 +5041,10 @@
         <v>8</v>
       </c>
       <c r="O124" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="R124" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -5046,7 +5055,7 @@
         <v>123</v>
       </c>
       <c r="R125" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -5087,7 +5096,7 @@
         <v>8</v>
       </c>
       <c r="R126" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -5128,7 +5137,7 @@
         <v>10</v>
       </c>
       <c r="R127" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -5139,7 +5148,7 @@
         <v>126</v>
       </c>
       <c r="R128" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -5150,7 +5159,7 @@
         <v>127</v>
       </c>
       <c r="R129" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -5191,7 +5200,7 @@
         <v>8</v>
       </c>
       <c r="R130" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -5202,7 +5211,7 @@
         <v>129</v>
       </c>
       <c r="R131" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -5213,7 +5222,7 @@
         <v>130</v>
       </c>
       <c r="R132" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -5254,10 +5263,10 @@
         <v>8</v>
       </c>
       <c r="O133" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="R133" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -5298,7 +5307,7 @@
         <v>10</v>
       </c>
       <c r="R134" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -5309,7 +5318,7 @@
         <v>133</v>
       </c>
       <c r="R135" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -5320,7 +5329,7 @@
         <v>134</v>
       </c>
       <c r="R136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -5331,7 +5340,7 @@
         <v>135</v>
       </c>
       <c r="R137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -5372,7 +5381,7 @@
         <v>10</v>
       </c>
       <c r="R138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -5383,7 +5392,7 @@
         <v>137</v>
       </c>
       <c r="R139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -5424,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="R140" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -5465,7 +5474,7 @@
         <v>8</v>
       </c>
       <c r="R141" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -5506,7 +5515,7 @@
         <v>8</v>
       </c>
       <c r="R142" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -5517,7 +5526,7 @@
         <v>141</v>
       </c>
       <c r="R143" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -5558,10 +5567,10 @@
         <v>10</v>
       </c>
       <c r="O144" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R144" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -5572,7 +5581,7 @@
         <v>143</v>
       </c>
       <c r="R145" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -5613,10 +5622,10 @@
         <v>8</v>
       </c>
       <c r="O146" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="R146" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -5657,7 +5666,7 @@
         <v>10</v>
       </c>
       <c r="R147" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -5698,7 +5707,7 @@
         <v>6</v>
       </c>
       <c r="R148" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -5739,7 +5748,7 @@
         <v>10</v>
       </c>
       <c r="R149" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -5780,7 +5789,7 @@
         <v>6</v>
       </c>
       <c r="R150" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -5821,7 +5830,7 @@
         <v>8</v>
       </c>
       <c r="R151" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -5862,7 +5871,7 @@
         <v>10</v>
       </c>
       <c r="R152" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -5903,7 +5912,7 @@
         <v>10</v>
       </c>
       <c r="R153" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -5944,10 +5953,10 @@
         <v>8</v>
       </c>
       <c r="O154" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="R154" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -5958,7 +5967,7 @@
         <v>153</v>
       </c>
       <c r="R155" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -5969,7 +5978,7 @@
         <v>154</v>
       </c>
       <c r="R156" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -5980,7 +5989,7 @@
         <v>155</v>
       </c>
       <c r="R157" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -5991,7 +6000,7 @@
         <v>156</v>
       </c>
       <c r="R158" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -6002,7 +6011,7 @@
         <v>157</v>
       </c>
       <c r="R159" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -6013,7 +6022,7 @@
         <v>151</v>
       </c>
       <c r="R160" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -6054,7 +6063,7 @@
         <v>10</v>
       </c>
       <c r="R161" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -6095,7 +6104,7 @@
         <v>10</v>
       </c>
       <c r="R162" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -6106,7 +6115,7 @@
         <v>160</v>
       </c>
       <c r="R163" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -6117,7 +6126,7 @@
         <v>161</v>
       </c>
       <c r="R164" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -6128,7 +6137,7 @@
         <v>162</v>
       </c>
       <c r="R165" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -6139,7 +6148,7 @@
         <v>163</v>
       </c>
       <c r="R166" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -6180,7 +6189,7 @@
         <v>10</v>
       </c>
       <c r="R167" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -6221,7 +6230,7 @@
         <v>8</v>
       </c>
       <c r="R168" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -6262,7 +6271,7 @@
         <v>10</v>
       </c>
       <c r="R169" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -6273,7 +6282,7 @@
         <v>167</v>
       </c>
       <c r="R170" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -6284,7 +6293,7 @@
         <v>168</v>
       </c>
       <c r="R171" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -6295,7 +6304,7 @@
         <v>169</v>
       </c>
       <c r="R172" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -6336,7 +6345,7 @@
         <v>8</v>
       </c>
       <c r="R173" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -6347,7 +6356,7 @@
         <v>171</v>
       </c>
       <c r="R174" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -6388,7 +6397,7 @@
         <v>10</v>
       </c>
       <c r="R175" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -6429,10 +6438,10 @@
         <v>10</v>
       </c>
       <c r="O176" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="R176" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -6473,7 +6482,7 @@
         <v>10</v>
       </c>
       <c r="R177" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -6514,7 +6523,7 @@
         <v>8</v>
       </c>
       <c r="R178" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -6525,7 +6534,7 @@
         <v>176</v>
       </c>
       <c r="R179" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -6566,7 +6575,7 @@
         <v>10</v>
       </c>
       <c r="R180" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -6607,7 +6616,7 @@
         <v>6</v>
       </c>
       <c r="R181" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -6618,7 +6627,7 @@
         <v>179</v>
       </c>
       <c r="R182" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -6629,7 +6638,7 @@
         <v>114</v>
       </c>
       <c r="R183" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -6640,7 +6649,7 @@
         <v>180</v>
       </c>
       <c r="R184" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -6651,7 +6660,7 @@
         <v>181</v>
       </c>
       <c r="R185" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -6662,7 +6671,7 @@
         <v>182</v>
       </c>
       <c r="R186" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -6703,7 +6712,7 @@
         <v>10</v>
       </c>
       <c r="R187" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -6714,7 +6723,7 @@
         <v>184</v>
       </c>
       <c r="R188" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -6755,10 +6764,10 @@
         <v>8</v>
       </c>
       <c r="O189" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="R189" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -6769,7 +6778,7 @@
         <v>186</v>
       </c>
       <c r="R190" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -6780,7 +6789,7 @@
         <v>187</v>
       </c>
       <c r="R191" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -6791,7 +6800,7 @@
         <v>188</v>
       </c>
       <c r="R192" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -6832,7 +6841,7 @@
         <v>10</v>
       </c>
       <c r="R193" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -6873,7 +6882,7 @@
         <v>10</v>
       </c>
       <c r="R194" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -6884,7 +6893,7 @@
         <v>191</v>
       </c>
       <c r="R195" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -6925,7 +6934,7 @@
         <v>10</v>
       </c>
       <c r="R196" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -6966,7 +6975,7 @@
         <v>10</v>
       </c>
       <c r="R197" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -7007,7 +7016,7 @@
         <v>10</v>
       </c>
       <c r="R198" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -7048,7 +7057,7 @@
         <v>10</v>
       </c>
       <c r="R199" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -7059,7 +7068,7 @@
         <v>196</v>
       </c>
       <c r="R200" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -7100,7 +7109,7 @@
         <v>10</v>
       </c>
       <c r="R201" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -7111,7 +7120,7 @@
         <v>198</v>
       </c>
       <c r="R202" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -7152,7 +7161,7 @@
         <v>10</v>
       </c>
       <c r="R203" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -7163,7 +7172,7 @@
         <v>200</v>
       </c>
       <c r="R204" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -7204,7 +7213,7 @@
         <v>10</v>
       </c>
       <c r="R205" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -7215,7 +7224,7 @@
         <v>202</v>
       </c>
       <c r="R206" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -7226,7 +7235,7 @@
         <v>203</v>
       </c>
       <c r="R207" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -7267,10 +7276,10 @@
         <v>10</v>
       </c>
       <c r="O208" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="R208" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -7311,7 +7320,7 @@
         <v>10</v>
       </c>
       <c r="R209" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -7352,7 +7361,7 @@
         <v>8</v>
       </c>
       <c r="R210" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -7393,7 +7402,7 @@
         <v>10</v>
       </c>
       <c r="R211" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -7434,7 +7443,7 @@
         <v>8</v>
       </c>
       <c r="R212" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -7475,7 +7484,7 @@
         <v>8</v>
       </c>
       <c r="R213" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -7486,7 +7495,7 @@
         <v>210</v>
       </c>
       <c r="R214" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -7527,7 +7536,7 @@
         <v>10</v>
       </c>
       <c r="R215" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -7568,7 +7577,7 @@
         <v>8</v>
       </c>
       <c r="R216" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -7579,7 +7588,7 @@
         <v>213</v>
       </c>
       <c r="R217" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -7620,7 +7629,7 @@
         <v>8</v>
       </c>
       <c r="R218" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -7631,7 +7640,7 @@
         <v>215</v>
       </c>
       <c r="R219" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -7672,10 +7681,10 @@
         <v>4</v>
       </c>
       <c r="O220" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="R220" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -7716,7 +7725,7 @@
         <v>10</v>
       </c>
       <c r="R221" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -7757,7 +7766,7 @@
         <v>8</v>
       </c>
       <c r="R222" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -7798,7 +7807,7 @@
         <v>10</v>
       </c>
       <c r="R223" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -7839,7 +7848,7 @@
         <v>6</v>
       </c>
       <c r="R224" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -7850,7 +7859,7 @@
         <v>221</v>
       </c>
       <c r="R225" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -7861,7 +7870,7 @@
         <v>222</v>
       </c>
       <c r="R226" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -7872,7 +7881,7 @@
         <v>223</v>
       </c>
       <c r="R227" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -7883,7 +7892,7 @@
         <v>224</v>
       </c>
       <c r="R228" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -7894,7 +7903,7 @@
         <v>163</v>
       </c>
       <c r="R229" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -7935,7 +7944,7 @@
         <v>10</v>
       </c>
       <c r="R230" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -7976,7 +7985,7 @@
         <v>10</v>
       </c>
       <c r="R231" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -7987,7 +7996,7 @@
         <v>227</v>
       </c>
       <c r="R232" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -8028,7 +8037,7 @@
         <v>8</v>
       </c>
       <c r="R233" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -8039,7 +8048,7 @@
         <v>229</v>
       </c>
       <c r="R234" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -8080,7 +8089,7 @@
         <v>8</v>
       </c>
       <c r="R235" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -8091,7 +8100,7 @@
         <v>231</v>
       </c>
       <c r="R236" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -8102,7 +8111,7 @@
         <v>232</v>
       </c>
       <c r="R237" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -8113,7 +8122,7 @@
         <v>233</v>
       </c>
       <c r="R238" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -8124,7 +8133,7 @@
         <v>234</v>
       </c>
       <c r="R239" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -8135,7 +8144,7 @@
         <v>163</v>
       </c>
       <c r="R240" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -8146,7 +8155,7 @@
         <v>235</v>
       </c>
       <c r="R241" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -8157,7 +8166,7 @@
         <v>236</v>
       </c>
       <c r="R242" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -8168,7 +8177,7 @@
         <v>237</v>
       </c>
       <c r="R243" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/public/answer2024_1~3.xlsx
+++ b/public/answer2024_1~3.xlsx
@@ -1608,16 +1608,16 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:R243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27:Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" customWidth="1"/>
     <col min="15" max="15" width="15.85546875" customWidth="1"/>
     <col min="16" max="16" width="11.5703125" customWidth="1"/>
   </cols>
@@ -1737,6 +1737,9 @@
       <c r="L4">
         <v>10</v>
       </c>
+      <c r="Q4">
+        <v>100</v>
+      </c>
       <c r="R4" t="s">
         <v>331</v>
       </c>
@@ -1778,6 +1781,9 @@
       <c r="L5">
         <v>10</v>
       </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
       <c r="R5" t="s">
         <v>331</v>
       </c>
@@ -1833,6 +1839,9 @@
       <c r="O7" t="s">
         <v>317</v>
       </c>
+      <c r="Q7">
+        <v>90</v>
+      </c>
       <c r="R7" t="s">
         <v>331</v>
       </c>
@@ -1940,6 +1949,9 @@
       <c r="L14">
         <v>8</v>
       </c>
+      <c r="Q14">
+        <v>94</v>
+      </c>
       <c r="R14" t="s">
         <v>253</v>
       </c>
@@ -1992,6 +2004,9 @@
       <c r="L16">
         <v>10</v>
       </c>
+      <c r="Q16">
+        <v>100</v>
+      </c>
       <c r="R16" t="s">
         <v>253</v>
       </c>
@@ -2033,6 +2048,9 @@
       <c r="L17">
         <v>10</v>
       </c>
+      <c r="Q17">
+        <v>100</v>
+      </c>
       <c r="R17" t="s">
         <v>253</v>
       </c>
@@ -2096,6 +2114,9 @@
       <c r="L20">
         <v>10</v>
       </c>
+      <c r="Q20">
+        <v>98</v>
+      </c>
       <c r="R20" t="s">
         <v>253</v>
       </c>
@@ -2151,6 +2172,9 @@
       <c r="O22" t="s">
         <v>318</v>
       </c>
+      <c r="Q22">
+        <v>90</v>
+      </c>
       <c r="R22" t="s">
         <v>253</v>
       </c>
@@ -2192,6 +2216,9 @@
       <c r="L23">
         <v>10</v>
       </c>
+      <c r="Q23">
+        <v>100</v>
+      </c>
       <c r="R23" t="s">
         <v>254</v>
       </c>
@@ -2236,6 +2263,9 @@
       <c r="O24" t="s">
         <v>319</v>
       </c>
+      <c r="Q24">
+        <v>60</v>
+      </c>
       <c r="R24" t="s">
         <v>254</v>
       </c>
@@ -2277,6 +2307,9 @@
       <c r="L25">
         <v>8</v>
       </c>
+      <c r="Q25">
+        <v>80</v>
+      </c>
       <c r="R25" t="s">
         <v>254</v>
       </c>
@@ -2329,6 +2362,10 @@
       <c r="L27">
         <v>8</v>
       </c>
+      <c r="Q27">
+        <f>SUM(C27:L27)</f>
+        <v>84</v>
+      </c>
       <c r="R27" t="s">
         <v>254</v>
       </c>
@@ -2370,6 +2407,9 @@
       <c r="L28">
         <v>10</v>
       </c>
+      <c r="Q28">
+        <v>100</v>
+      </c>
       <c r="R28" t="s">
         <v>254</v>
       </c>
@@ -2414,6 +2454,9 @@
       <c r="O29" t="s">
         <v>320</v>
       </c>
+      <c r="Q29">
+        <v>100</v>
+      </c>
       <c r="R29" t="s">
         <v>254</v>
       </c>
@@ -2458,6 +2501,10 @@
       <c r="O30" s="12" t="s">
         <v>321</v>
       </c>
+      <c r="Q30">
+        <f>SUM(C30:L30)</f>
+        <v>88</v>
+      </c>
       <c r="R30" t="s">
         <v>254</v>
       </c>
@@ -2513,6 +2560,10 @@
       <c r="M32" t="s">
         <v>322</v>
       </c>
+      <c r="Q32">
+        <f>SUM(C32:L32)</f>
+        <v>60</v>
+      </c>
       <c r="R32" t="s">
         <v>255</v>
       </c>
@@ -2554,6 +2605,10 @@
       <c r="L33">
         <v>8</v>
       </c>
+      <c r="Q33">
+        <f>SUM(C33:L33)</f>
+        <v>82</v>
+      </c>
       <c r="R33" t="s">
         <v>255</v>
       </c>
@@ -2598,6 +2653,10 @@
       <c r="M34" s="13" t="s">
         <v>323</v>
       </c>
+      <c r="Q34">
+        <f>SUM(C34:L34)</f>
+        <v>80</v>
+      </c>
       <c r="R34" t="s">
         <v>255</v>
       </c>
@@ -2639,6 +2698,10 @@
       <c r="L35">
         <v>8</v>
       </c>
+      <c r="Q35">
+        <f>SUM(C35:L35)</f>
+        <v>82</v>
+      </c>
       <c r="R35" t="s">
         <v>255</v>
       </c>
@@ -2691,6 +2754,10 @@
       <c r="L37">
         <v>8</v>
       </c>
+      <c r="Q37">
+        <f>SUM(C37:L37)</f>
+        <v>82</v>
+      </c>
       <c r="R37" t="s">
         <v>255</v>
       </c>
@@ -2735,6 +2802,10 @@
       <c r="O38" t="s">
         <v>324</v>
       </c>
+      <c r="Q38">
+        <f>SUM(C38:L38)</f>
+        <v>96</v>
+      </c>
       <c r="R38" t="s">
         <v>255</v>
       </c>
@@ -2798,6 +2869,10 @@
       <c r="L41">
         <v>8</v>
       </c>
+      <c r="Q41">
+        <f>SUM(C41:L41)</f>
+        <v>82</v>
+      </c>
       <c r="R41" t="s">
         <v>256</v>
       </c>
@@ -2842,6 +2917,10 @@
       <c r="O42" t="s">
         <v>325</v>
       </c>
+      <c r="Q42">
+        <f>SUM(C42:L42)</f>
+        <v>74</v>
+      </c>
       <c r="R42" t="s">
         <v>256</v>
       </c>
@@ -2897,6 +2976,10 @@
       <c r="O44" t="s">
         <v>326</v>
       </c>
+      <c r="Q44">
+        <f>SUM(C44:L44)</f>
+        <v>100</v>
+      </c>
       <c r="R44" t="s">
         <v>256</v>
       </c>
@@ -2941,6 +3024,10 @@
       <c r="M45" t="s">
         <v>327</v>
       </c>
+      <c r="Q45">
+        <f>SUM(C45:L45)</f>
+        <v>100</v>
+      </c>
       <c r="R45" t="s">
         <v>256</v>
       </c>
@@ -3029,6 +3116,10 @@
       <c r="L50">
         <v>4</v>
       </c>
+      <c r="Q50">
+        <f>SUM(C50:L50)</f>
+        <v>39</v>
+      </c>
       <c r="R50" t="s">
         <v>256</v>
       </c>
@@ -3081,6 +3172,9 @@
       <c r="L52">
         <v>10</v>
       </c>
+      <c r="Q52">
+        <v>100</v>
+      </c>
       <c r="R52" t="s">
         <v>257</v>
       </c>
@@ -3125,6 +3219,10 @@
       <c r="M53" t="s">
         <v>291</v>
       </c>
+      <c r="Q53">
+        <f>SUM(C53:L53)</f>
+        <v>78</v>
+      </c>
       <c r="R53" t="s">
         <v>257</v>
       </c>
@@ -3183,6 +3281,10 @@
       <c r="M55" t="s">
         <v>293</v>
       </c>
+      <c r="Q55">
+        <f>SUM(C55:L55)</f>
+        <v>66</v>
+      </c>
       <c r="R55" t="s">
         <v>257</v>
       </c>
@@ -3277,6 +3379,10 @@
       <c r="M60" t="s">
         <v>296</v>
       </c>
+      <c r="Q60">
+        <f>SUM(C60:L60)</f>
+        <v>74</v>
+      </c>
       <c r="R60" t="s">
         <v>257</v>
       </c>
@@ -3318,6 +3424,9 @@
       <c r="L61">
         <v>10</v>
       </c>
+      <c r="Q61">
+        <v>100</v>
+      </c>
       <c r="R61" t="s">
         <v>258</v>
       </c>
@@ -3359,6 +3468,9 @@
       <c r="L62">
         <v>10</v>
       </c>
+      <c r="Q62">
+        <v>100</v>
+      </c>
       <c r="R62" t="s">
         <v>258</v>
       </c>
@@ -3400,6 +3512,10 @@
       <c r="L63">
         <v>6</v>
       </c>
+      <c r="Q63">
+        <f>SUM(C63:L63)</f>
+        <v>86</v>
+      </c>
       <c r="R63" t="s">
         <v>258</v>
       </c>
@@ -3441,6 +3557,10 @@
       <c r="L64">
         <v>8</v>
       </c>
+      <c r="Q64">
+        <f>SUM(C64:L64)</f>
+        <v>78</v>
+      </c>
       <c r="R64" t="s">
         <v>258</v>
       </c>
@@ -3485,6 +3605,10 @@
       <c r="M65" t="s">
         <v>297</v>
       </c>
+      <c r="Q65">
+        <f>SUM(C65:L65)</f>
+        <v>98</v>
+      </c>
       <c r="R65" t="s">
         <v>258</v>
       </c>
@@ -3568,6 +3692,10 @@
       <c r="L69">
         <v>10</v>
       </c>
+      <c r="Q69">
+        <f>SUM(C69:L69)</f>
+        <v>94</v>
+      </c>
       <c r="R69" t="s">
         <v>258</v>
       </c>
@@ -3609,6 +3737,10 @@
       <c r="L70">
         <v>8</v>
       </c>
+      <c r="Q70">
+        <f>SUM(C70:L70)</f>
+        <v>84</v>
+      </c>
       <c r="R70" t="s">
         <v>258</v>
       </c>
@@ -3714,6 +3846,10 @@
       <c r="L76">
         <v>10</v>
       </c>
+      <c r="Q76">
+        <f>SUM(C76:L76)</f>
+        <v>94</v>
+      </c>
       <c r="R76" t="s">
         <v>259</v>
       </c>
@@ -3797,6 +3933,9 @@
       <c r="L80">
         <v>10</v>
       </c>
+      <c r="Q80">
+        <v>100</v>
+      </c>
       <c r="R80" t="s">
         <v>259</v>
       </c>
@@ -3838,6 +3977,10 @@
       <c r="L81">
         <v>10</v>
       </c>
+      <c r="Q81">
+        <f>SUM(C81:L81)</f>
+        <v>98</v>
+      </c>
       <c r="R81" t="s">
         <v>260</v>
       </c>
@@ -3893,6 +4036,10 @@
       <c r="L83">
         <v>8</v>
       </c>
+      <c r="Q83">
+        <f>SUM(C83:L83)</f>
+        <v>88</v>
+      </c>
       <c r="R83" t="s">
         <v>260</v>
       </c>
@@ -3937,6 +4084,10 @@
       <c r="M84" t="s">
         <v>308</v>
       </c>
+      <c r="Q84">
+        <f>SUM(C84:L84)</f>
+        <v>72</v>
+      </c>
       <c r="R84" t="s">
         <v>260</v>
       </c>
@@ -3978,6 +4129,10 @@
       <c r="L85">
         <v>10</v>
       </c>
+      <c r="Q85">
+        <f>SUM(C85:L85)</f>
+        <v>98</v>
+      </c>
       <c r="R85" t="s">
         <v>260</v>
       </c>
@@ -4030,6 +4185,10 @@
       <c r="L87">
         <v>10</v>
       </c>
+      <c r="Q87">
+        <f>SUM(C87:L87)</f>
+        <v>92</v>
+      </c>
       <c r="R87" t="s">
         <v>260</v>
       </c>
@@ -4074,6 +4233,10 @@
       <c r="M88" t="s">
         <v>309</v>
       </c>
+      <c r="Q88">
+        <f>SUM(C88:L88)</f>
+        <v>92</v>
+      </c>
       <c r="R88" t="s">
         <v>260</v>
       </c>
@@ -4115,6 +4278,10 @@
       <c r="L89">
         <v>10</v>
       </c>
+      <c r="Q89">
+        <f>SUM(C89:L89)</f>
+        <v>94</v>
+      </c>
       <c r="R89" t="s">
         <v>260</v>
       </c>
@@ -4234,6 +4401,10 @@
       <c r="M96" t="s">
         <v>313</v>
       </c>
+      <c r="Q96">
+        <f>SUM(C96:L96)</f>
+        <v>76</v>
+      </c>
       <c r="R96" t="s">
         <v>263</v>
       </c>
@@ -4278,6 +4449,10 @@
       <c r="M97" t="s">
         <v>314</v>
       </c>
+      <c r="Q97">
+        <f>SUM(C97:L97)</f>
+        <v>84</v>
+      </c>
       <c r="R97" t="s">
         <v>263</v>
       </c>
@@ -4336,6 +4511,10 @@
       <c r="M99" t="s">
         <v>316</v>
       </c>
+      <c r="Q99">
+        <f>SUM(C99:L99)</f>
+        <v>88</v>
+      </c>
       <c r="R99" t="s">
         <v>263</v>
       </c>
@@ -4377,6 +4556,10 @@
       <c r="L100">
         <v>10</v>
       </c>
+      <c r="Q100">
+        <f>SUM(C100:L100)</f>
+        <v>100</v>
+      </c>
       <c r="R100" t="s">
         <v>263</v>
       </c>
@@ -4418,6 +4601,10 @@
       <c r="L101">
         <v>10</v>
       </c>
+      <c r="Q101">
+        <f>SUM(C101:L101)</f>
+        <v>94</v>
+      </c>
       <c r="R101" t="s">
         <v>263</v>
       </c>
@@ -4462,6 +4649,10 @@
       <c r="O102" s="10" t="s">
         <v>279</v>
       </c>
+      <c r="Q102">
+        <f t="shared" ref="Q102" si="0">SUM(C102:L102)</f>
+        <v>74</v>
+      </c>
       <c r="R102" t="s">
         <v>263</v>
       </c>
@@ -4577,6 +4768,10 @@
       <c r="L107">
         <v>8</v>
       </c>
+      <c r="Q107">
+        <f t="shared" ref="Q107" si="1">SUM(C107:L107)</f>
+        <v>86</v>
+      </c>
       <c r="R107" t="s">
         <v>264</v>
       </c>
@@ -4654,6 +4849,10 @@
       <c r="O111" t="s">
         <v>280</v>
       </c>
+      <c r="Q111">
+        <f t="shared" ref="Q111" si="2">SUM(C111:L111)</f>
+        <v>98</v>
+      </c>
       <c r="R111" t="s">
         <v>264</v>
       </c>
@@ -4686,7 +4885,7 @@
         <v>6</v>
       </c>
       <c r="F113">
-        <v>610</v>
+        <v>10</v>
       </c>
       <c r="G113">
         <v>10</v>
@@ -4705,6 +4904,9 @@
       </c>
       <c r="L113">
         <v>10</v>
+      </c>
+      <c r="Q113">
+        <v>88</v>
       </c>
       <c r="R113" t="s">
         <v>264</v>
@@ -4758,6 +4960,9 @@
       <c r="L115">
         <v>8</v>
       </c>
+      <c r="Q115">
+        <v>92</v>
+      </c>
       <c r="R115" t="s">
         <v>265</v>
       </c>
@@ -4799,6 +5004,9 @@
       <c r="L116">
         <v>10</v>
       </c>
+      <c r="Q116">
+        <v>100</v>
+      </c>
       <c r="R116" t="s">
         <v>265</v>
       </c>
@@ -4840,6 +5048,9 @@
       <c r="L117">
         <v>10</v>
       </c>
+      <c r="Q117">
+        <v>100</v>
+      </c>
       <c r="R117" t="s">
         <v>265</v>
       </c>
@@ -4892,6 +5103,9 @@
       <c r="L119">
         <v>10</v>
       </c>
+      <c r="Q119">
+        <v>100</v>
+      </c>
       <c r="R119" t="s">
         <v>265</v>
       </c>
@@ -4958,6 +5172,10 @@
       <c r="O122" t="s">
         <v>281</v>
       </c>
+      <c r="Q122">
+        <f>SUM(C122:L122)</f>
+        <v>76</v>
+      </c>
       <c r="R122" t="s">
         <v>265</v>
       </c>
@@ -5095,6 +5313,10 @@
       <c r="L126">
         <v>8</v>
       </c>
+      <c r="Q126">
+        <f>SUM(C126:L126)</f>
+        <v>90</v>
+      </c>
       <c r="R126" t="s">
         <v>266</v>
       </c>
@@ -5136,6 +5358,10 @@
       <c r="L127">
         <v>10</v>
       </c>
+      <c r="Q127">
+        <f>SUM(C127:L127)</f>
+        <v>100</v>
+      </c>
       <c r="R127" t="s">
         <v>266</v>
       </c>
@@ -5199,6 +5425,10 @@
       <c r="L130">
         <v>8</v>
       </c>
+      <c r="Q130">
+        <f>SUM(C130:L130)</f>
+        <v>82</v>
+      </c>
       <c r="R130" t="s">
         <v>266</v>
       </c>
@@ -5265,6 +5495,10 @@
       <c r="O133" t="s">
         <v>283</v>
       </c>
+      <c r="Q133">
+        <f>SUM(C133:L133)</f>
+        <v>72</v>
+      </c>
       <c r="R133" t="s">
         <v>266</v>
       </c>
@@ -5306,6 +5540,10 @@
       <c r="L134">
         <v>10</v>
       </c>
+      <c r="Q134">
+        <f>SUM(C134:L134)</f>
+        <v>100</v>
+      </c>
       <c r="R134" t="s">
         <v>267</v>
       </c>
@@ -5380,6 +5618,10 @@
       <c r="L138">
         <v>10</v>
       </c>
+      <c r="Q138">
+        <f>SUM(C138:L138)</f>
+        <v>100</v>
+      </c>
       <c r="R138" t="s">
         <v>267</v>
       </c>
@@ -5432,6 +5674,10 @@
       <c r="L140">
         <v>10</v>
       </c>
+      <c r="Q140">
+        <f>SUM(C140:L140)</f>
+        <v>100</v>
+      </c>
       <c r="R140" t="s">
         <v>267</v>
       </c>
@@ -5473,6 +5719,10 @@
       <c r="L141">
         <v>8</v>
       </c>
+      <c r="Q141">
+        <f>SUM(C141:L141)</f>
+        <v>84</v>
+      </c>
       <c r="R141" t="s">
         <v>267</v>
       </c>
@@ -5514,6 +5764,10 @@
       <c r="L142">
         <v>8</v>
       </c>
+      <c r="Q142">
+        <f>SUM(C142:L142)</f>
+        <v>80</v>
+      </c>
       <c r="R142" t="s">
         <v>267</v>
       </c>
@@ -5569,6 +5823,10 @@
       <c r="O144" t="s">
         <v>284</v>
       </c>
+      <c r="Q144">
+        <f>SUM(C144:L144)</f>
+        <v>88</v>
+      </c>
       <c r="R144" t="s">
         <v>268</v>
       </c>
@@ -5624,6 +5882,10 @@
       <c r="O146" t="s">
         <v>290</v>
       </c>
+      <c r="Q146">
+        <f>SUM(C146:L146)</f>
+        <v>76</v>
+      </c>
       <c r="R146" t="s">
         <v>268</v>
       </c>
@@ -5665,6 +5927,10 @@
       <c r="L147">
         <v>10</v>
       </c>
+      <c r="Q147">
+        <f>SUM(C147:L147)</f>
+        <v>98</v>
+      </c>
       <c r="R147" t="s">
         <v>268</v>
       </c>
@@ -5706,6 +5972,10 @@
       <c r="L148">
         <v>6</v>
       </c>
+      <c r="Q148">
+        <f>SUM(C148:L148)</f>
+        <v>68</v>
+      </c>
       <c r="R148" t="s">
         <v>268</v>
       </c>
@@ -5747,6 +6017,10 @@
       <c r="L149">
         <v>10</v>
       </c>
+      <c r="Q149">
+        <f>SUM(C149:L149)</f>
+        <v>96</v>
+      </c>
       <c r="R149" t="s">
         <v>268</v>
       </c>
@@ -5788,6 +6062,10 @@
       <c r="L150">
         <v>6</v>
       </c>
+      <c r="Q150">
+        <f>SUM(C150:L150)</f>
+        <v>70</v>
+      </c>
       <c r="R150" t="s">
         <v>268</v>
       </c>
@@ -5829,6 +6107,10 @@
       <c r="L151">
         <v>8</v>
       </c>
+      <c r="Q151">
+        <f>SUM(C151:L151)</f>
+        <v>92</v>
+      </c>
       <c r="R151" t="s">
         <v>268</v>
       </c>
@@ -5870,6 +6152,10 @@
       <c r="L152">
         <v>10</v>
       </c>
+      <c r="Q152">
+        <f>SUM(C152:L152)</f>
+        <v>100</v>
+      </c>
       <c r="R152" t="s">
         <v>268</v>
       </c>
@@ -5911,6 +6197,10 @@
       <c r="L153">
         <v>10</v>
       </c>
+      <c r="Q153">
+        <f>SUM(C153:L153)</f>
+        <v>100</v>
+      </c>
       <c r="R153" t="s">
         <v>268</v>
       </c>
@@ -5955,6 +6245,10 @@
       <c r="O154" t="s">
         <v>289</v>
       </c>
+      <c r="Q154">
+        <f>SUM(C154:L154)</f>
+        <v>82</v>
+      </c>
       <c r="R154" t="s">
         <v>269</v>
       </c>
@@ -6062,6 +6356,10 @@
       <c r="L161">
         <v>10</v>
       </c>
+      <c r="Q161">
+        <f>SUM(C161:L161)</f>
+        <v>100</v>
+      </c>
       <c r="R161" t="s">
         <v>269</v>
       </c>
@@ -6103,6 +6401,10 @@
       <c r="L162">
         <v>10</v>
       </c>
+      <c r="Q162">
+        <f>SUM(C162:L162)</f>
+        <v>100</v>
+      </c>
       <c r="R162" t="s">
         <v>269</v>
       </c>
@@ -6188,6 +6490,10 @@
       <c r="L167">
         <v>10</v>
       </c>
+      <c r="Q167">
+        <f>SUM(C167:L167)</f>
+        <v>100</v>
+      </c>
       <c r="R167" t="s">
         <v>270</v>
       </c>
@@ -6229,6 +6535,10 @@
       <c r="L168">
         <v>8</v>
       </c>
+      <c r="Q168">
+        <f>SUM(C168:L168)</f>
+        <v>92</v>
+      </c>
       <c r="R168" t="s">
         <v>270</v>
       </c>
@@ -6270,6 +6580,10 @@
       <c r="L169">
         <v>10</v>
       </c>
+      <c r="Q169">
+        <f>SUM(C169:L169)</f>
+        <v>100</v>
+      </c>
       <c r="R169" t="s">
         <v>270</v>
       </c>
@@ -6344,6 +6658,10 @@
       <c r="L173">
         <v>8</v>
       </c>
+      <c r="Q173">
+        <f>SUM(C173:L173)</f>
+        <v>80</v>
+      </c>
       <c r="R173" t="s">
         <v>270</v>
       </c>
@@ -6396,6 +6714,10 @@
       <c r="L175">
         <v>10</v>
       </c>
+      <c r="Q175">
+        <f>SUM(C175:L175)</f>
+        <v>100</v>
+      </c>
       <c r="R175" t="s">
         <v>271</v>
       </c>
@@ -6440,6 +6762,10 @@
       <c r="O176" t="s">
         <v>288</v>
       </c>
+      <c r="Q176">
+        <f>SUM(C176:L176)</f>
+        <v>100</v>
+      </c>
       <c r="R176" t="s">
         <v>271</v>
       </c>
@@ -6481,6 +6807,10 @@
       <c r="L177">
         <v>10</v>
       </c>
+      <c r="Q177">
+        <f>SUM(C177:L177)</f>
+        <v>96</v>
+      </c>
       <c r="R177" t="s">
         <v>271</v>
       </c>
@@ -6522,6 +6852,10 @@
       <c r="L178">
         <v>8</v>
       </c>
+      <c r="Q178">
+        <f>SUM(C178:L178)</f>
+        <v>84</v>
+      </c>
       <c r="R178" t="s">
         <v>271</v>
       </c>
@@ -6574,6 +6908,10 @@
       <c r="L180">
         <v>10</v>
       </c>
+      <c r="Q180">
+        <f>SUM(C180:L180)</f>
+        <v>100</v>
+      </c>
       <c r="R180" t="s">
         <v>271</v>
       </c>
@@ -6615,6 +6953,10 @@
       <c r="L181">
         <v>6</v>
       </c>
+      <c r="Q181">
+        <f>SUM(C181:L181)</f>
+        <v>84</v>
+      </c>
       <c r="R181" t="s">
         <v>271</v>
       </c>
@@ -6711,6 +7053,10 @@
       <c r="L187">
         <v>10</v>
       </c>
+      <c r="Q187">
+        <f>SUM(C187:L187)</f>
+        <v>100</v>
+      </c>
       <c r="R187" t="s">
         <v>272</v>
       </c>
@@ -6766,6 +7112,10 @@
       <c r="O189" t="s">
         <v>287</v>
       </c>
+      <c r="Q189">
+        <f>SUM(C189:L189)</f>
+        <v>86</v>
+      </c>
       <c r="R189" t="s">
         <v>272</v>
       </c>
@@ -6840,6 +7190,10 @@
       <c r="L193">
         <v>10</v>
       </c>
+      <c r="Q193">
+        <f>SUM(C193:L193)</f>
+        <v>96</v>
+      </c>
       <c r="R193" t="s">
         <v>272</v>
       </c>
@@ -6881,6 +7235,10 @@
       <c r="L194">
         <v>10</v>
       </c>
+      <c r="Q194">
+        <f>SUM(C194:L194)</f>
+        <v>100</v>
+      </c>
       <c r="R194" t="s">
         <v>273</v>
       </c>
@@ -6933,6 +7291,10 @@
       <c r="L196">
         <v>10</v>
       </c>
+      <c r="Q196">
+        <f>SUM(C196:L196)</f>
+        <v>100</v>
+      </c>
       <c r="R196" t="s">
         <v>273</v>
       </c>
@@ -6974,6 +7336,10 @@
       <c r="L197">
         <v>10</v>
       </c>
+      <c r="Q197">
+        <f>SUM(C197:L197)</f>
+        <v>100</v>
+      </c>
       <c r="R197" t="s">
         <v>273</v>
       </c>
@@ -7015,6 +7381,10 @@
       <c r="L198">
         <v>10</v>
       </c>
+      <c r="Q198">
+        <f>SUM(C198:L198)</f>
+        <v>100</v>
+      </c>
       <c r="R198" t="s">
         <v>273</v>
       </c>
@@ -7056,6 +7426,10 @@
       <c r="L199">
         <v>10</v>
       </c>
+      <c r="Q199">
+        <f>SUM(C199:L199)</f>
+        <v>100</v>
+      </c>
       <c r="R199" t="s">
         <v>273</v>
       </c>
@@ -7108,6 +7482,10 @@
       <c r="L201">
         <v>10</v>
       </c>
+      <c r="Q201">
+        <f>SUM(C201:L201)</f>
+        <v>100</v>
+      </c>
       <c r="R201" t="s">
         <v>273</v>
       </c>
@@ -7160,6 +7538,10 @@
       <c r="L203">
         <v>10</v>
       </c>
+      <c r="Q203">
+        <f>SUM(C203:L203)</f>
+        <v>100</v>
+      </c>
       <c r="R203" t="s">
         <v>273</v>
       </c>
@@ -7212,6 +7594,10 @@
       <c r="L205">
         <v>10</v>
       </c>
+      <c r="Q205">
+        <f>SUM(C205:L205)</f>
+        <v>100</v>
+      </c>
       <c r="R205" t="s">
         <v>274</v>
       </c>
@@ -7278,6 +7664,10 @@
       <c r="O208" t="s">
         <v>286</v>
       </c>
+      <c r="Q208">
+        <f>SUM(C208:L208)</f>
+        <v>98</v>
+      </c>
       <c r="R208" t="s">
         <v>274</v>
       </c>
@@ -7319,6 +7709,10 @@
       <c r="L209">
         <v>10</v>
       </c>
+      <c r="Q209">
+        <f>SUM(C209:L209)</f>
+        <v>100</v>
+      </c>
       <c r="R209" t="s">
         <v>274</v>
       </c>
@@ -7360,6 +7754,10 @@
       <c r="L210">
         <v>8</v>
       </c>
+      <c r="Q210">
+        <f>SUM(C210:L210)</f>
+        <v>84</v>
+      </c>
       <c r="R210" t="s">
         <v>274</v>
       </c>
@@ -7401,6 +7799,10 @@
       <c r="L211">
         <v>10</v>
       </c>
+      <c r="Q211">
+        <f>SUM(C211:L211)</f>
+        <v>100</v>
+      </c>
       <c r="R211" t="s">
         <v>274</v>
       </c>
@@ -7442,6 +7844,10 @@
       <c r="L212">
         <v>8</v>
       </c>
+      <c r="Q212">
+        <f>SUM(C212:L212)</f>
+        <v>90</v>
+      </c>
       <c r="R212" t="s">
         <v>274</v>
       </c>
@@ -7483,6 +7889,10 @@
       <c r="L213">
         <v>8</v>
       </c>
+      <c r="Q213">
+        <f>SUM(C213:L213)</f>
+        <v>66</v>
+      </c>
       <c r="R213" t="s">
         <v>274</v>
       </c>
@@ -7535,6 +7945,10 @@
       <c r="L215">
         <v>10</v>
       </c>
+      <c r="Q215">
+        <f>SUM(C215:L215)</f>
+        <v>100</v>
+      </c>
       <c r="R215" t="s">
         <v>275</v>
       </c>
@@ -7576,6 +7990,10 @@
       <c r="L216">
         <v>8</v>
       </c>
+      <c r="Q216">
+        <f>SUM(C216:L216)</f>
+        <v>80</v>
+      </c>
       <c r="R216" t="s">
         <v>275</v>
       </c>
@@ -7628,6 +8046,10 @@
       <c r="L218">
         <v>8</v>
       </c>
+      <c r="Q218">
+        <f>SUM(C218:L218)</f>
+        <v>82</v>
+      </c>
       <c r="R218" t="s">
         <v>275</v>
       </c>
@@ -7683,6 +8105,10 @@
       <c r="O220" t="s">
         <v>285</v>
       </c>
+      <c r="Q220">
+        <f>SUM(C220:L220)</f>
+        <v>78</v>
+      </c>
       <c r="R220" t="s">
         <v>275</v>
       </c>
@@ -7724,6 +8150,10 @@
       <c r="L221">
         <v>10</v>
       </c>
+      <c r="Q221">
+        <f>SUM(C221:L221)</f>
+        <v>100</v>
+      </c>
       <c r="R221" t="s">
         <v>275</v>
       </c>
@@ -7765,6 +8195,10 @@
       <c r="L222">
         <v>8</v>
       </c>
+      <c r="Q222">
+        <f>SUM(C222:L222)</f>
+        <v>90</v>
+      </c>
       <c r="R222" t="s">
         <v>275</v>
       </c>
@@ -7806,6 +8240,10 @@
       <c r="L223">
         <v>10</v>
       </c>
+      <c r="Q223">
+        <f>SUM(C223:L223)</f>
+        <v>100</v>
+      </c>
       <c r="R223" t="s">
         <v>275</v>
       </c>
@@ -7847,6 +8285,10 @@
       <c r="L224">
         <v>6</v>
       </c>
+      <c r="Q224">
+        <f>SUM(C224:L224)</f>
+        <v>74</v>
+      </c>
       <c r="R224" t="s">
         <v>276</v>
       </c>
@@ -7943,6 +8385,10 @@
       <c r="L230">
         <v>10</v>
       </c>
+      <c r="Q230">
+        <f>SUM(C230:L230)</f>
+        <v>100</v>
+      </c>
       <c r="R230" t="s">
         <v>276</v>
       </c>
@@ -7984,6 +8430,10 @@
       <c r="L231">
         <v>10</v>
       </c>
+      <c r="Q231">
+        <f>SUM(C231:L231)</f>
+        <v>96</v>
+      </c>
       <c r="R231" t="s">
         <v>276</v>
       </c>
@@ -8036,6 +8486,10 @@
       <c r="L233">
         <v>8</v>
       </c>
+      <c r="Q233">
+        <f>SUM(C233:L233)</f>
+        <v>92</v>
+      </c>
       <c r="R233" t="s">
         <v>276</v>
       </c>
@@ -8087,6 +8541,10 @@
       </c>
       <c r="L235">
         <v>8</v>
+      </c>
+      <c r="Q235">
+        <f>SUM(C235:L235)</f>
+        <v>80</v>
       </c>
       <c r="R235" t="s">
         <v>277</v>

--- a/public/answer2024_1~3.xlsx
+++ b/public/answer2024_1~3.xlsx
@@ -1608,8 +1608,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:R243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27:Q30"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="O127" sqref="O127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4727,6 +4727,9 @@
       <c r="L106">
         <v>10</v>
       </c>
+      <c r="Q106">
+        <v>100</v>
+      </c>
       <c r="R106" t="s">
         <v>264</v>
       </c>
@@ -5217,6 +5220,10 @@
       <c r="L123">
         <v>8</v>
       </c>
+      <c r="Q123">
+        <f>SUM(C123:L123)</f>
+        <v>88</v>
+      </c>
       <c r="R123" t="s">
         <v>265</v>
       </c>
@@ -5261,6 +5268,10 @@
       <c r="O124" t="s">
         <v>282</v>
       </c>
+      <c r="Q124">
+        <f>SUM(C124:L124)</f>
+        <v>96</v>
+      </c>
       <c r="R124" t="s">
         <v>266</v>
       </c>
@@ -5883,7 +5894,7 @@
         <v>290</v>
       </c>
       <c r="Q146">
-        <f>SUM(C146:L146)</f>
+        <f t="shared" ref="Q146:Q154" si="3">SUM(C146:L146)</f>
         <v>76</v>
       </c>
       <c r="R146" t="s">
@@ -5928,7 +5939,7 @@
         <v>10</v>
       </c>
       <c r="Q147">
-        <f>SUM(C147:L147)</f>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="R147" t="s">
@@ -5973,7 +5984,7 @@
         <v>6</v>
       </c>
       <c r="Q148">
-        <f>SUM(C148:L148)</f>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="R148" t="s">
@@ -6018,7 +6029,7 @@
         <v>10</v>
       </c>
       <c r="Q149">
-        <f>SUM(C149:L149)</f>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="R149" t="s">
@@ -6063,7 +6074,7 @@
         <v>6</v>
       </c>
       <c r="Q150">
-        <f>SUM(C150:L150)</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="R150" t="s">
@@ -6108,7 +6119,7 @@
         <v>8</v>
       </c>
       <c r="Q151">
-        <f>SUM(C151:L151)</f>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="R151" t="s">
@@ -6153,7 +6164,7 @@
         <v>10</v>
       </c>
       <c r="Q152">
-        <f>SUM(C152:L152)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="R152" t="s">
@@ -6198,7 +6209,7 @@
         <v>10</v>
       </c>
       <c r="Q153">
-        <f>SUM(C153:L153)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="R153" t="s">
@@ -6246,7 +6257,7 @@
         <v>289</v>
       </c>
       <c r="Q154">
-        <f>SUM(C154:L154)</f>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="R154" t="s">
@@ -7665,7 +7676,7 @@
         <v>286</v>
       </c>
       <c r="Q208">
-        <f>SUM(C208:L208)</f>
+        <f t="shared" ref="Q208:Q213" si="4">SUM(C208:L208)</f>
         <v>98</v>
       </c>
       <c r="R208" t="s">
@@ -7710,7 +7721,7 @@
         <v>10</v>
       </c>
       <c r="Q209">
-        <f>SUM(C209:L209)</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="R209" t="s">
@@ -7755,7 +7766,7 @@
         <v>8</v>
       </c>
       <c r="Q210">
-        <f>SUM(C210:L210)</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="R210" t="s">
@@ -7800,7 +7811,7 @@
         <v>10</v>
       </c>
       <c r="Q211">
-        <f>SUM(C211:L211)</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="R211" t="s">
@@ -7845,7 +7856,7 @@
         <v>8</v>
       </c>
       <c r="Q212">
-        <f>SUM(C212:L212)</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="R212" t="s">
@@ -7890,7 +7901,7 @@
         <v>8</v>
       </c>
       <c r="Q213">
-        <f>SUM(C213:L213)</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="R213" t="s">

--- a/public/answer2024_1~3.xlsx
+++ b/public/answer2024_1~3.xlsx
@@ -1608,8 +1608,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:R243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="O127" sqref="O127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1696,6 +1696,36 @@
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
       <c r="R3" t="s">
         <v>331</v>
       </c>

--- a/public/answer2024_1~3.xlsx
+++ b/public/answer2024_1~3.xlsx
@@ -1609,7 +1609,7 @@
   <dimension ref="A1:R243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1726,6 +1726,9 @@
       <c r="L3">
         <v>10</v>
       </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
       <c r="R3" t="s">
         <v>331</v>
       </c>
